--- a/Code/Results/Cases/Case_0_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_194/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2283402458368329</v>
+        <v>0.3835736843423803</v>
       </c>
       <c r="D2">
-        <v>0.08374399602811877</v>
+        <v>0.1168614100633079</v>
       </c>
       <c r="E2">
-        <v>0.0627351673947576</v>
+        <v>0.1538977088172029</v>
       </c>
       <c r="F2">
-        <v>0.9335506751164715</v>
+        <v>2.281331322514944</v>
       </c>
       <c r="G2">
-        <v>0.0008270949080538507</v>
+        <v>0.002537459553084928</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07589907995883394</v>
+        <v>0.227037872542077</v>
       </c>
       <c r="K2">
-        <v>3.565584319896288</v>
+        <v>1.724842512487612</v>
       </c>
       <c r="L2">
-        <v>0.04306812120896453</v>
+        <v>0.1326414652375352</v>
       </c>
       <c r="M2">
-        <v>0.7618474262335866</v>
+        <v>0.5589997316786253</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.403557152212358</v>
+        <v>6.156959173689216</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2118932584860289</v>
+        <v>0.381567749823148</v>
       </c>
       <c r="D3">
-        <v>0.07540965106093722</v>
+        <v>0.11480254448864</v>
       </c>
       <c r="E3">
-        <v>0.06094370284476547</v>
+        <v>0.1542561673580938</v>
       </c>
       <c r="F3">
-        <v>0.9263532237493592</v>
+        <v>2.29982489110462</v>
       </c>
       <c r="G3">
-        <v>0.0008321696575609994</v>
+        <v>0.002540781978211733</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0777418443082496</v>
+        <v>0.2290034245979946</v>
       </c>
       <c r="K3">
-        <v>3.100584242489788</v>
+        <v>1.583822882290406</v>
       </c>
       <c r="L3">
-        <v>0.04362832354775215</v>
+        <v>0.1332869932048872</v>
       </c>
       <c r="M3">
-        <v>0.6670316667241565</v>
+        <v>0.5321245139767399</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.417436664201801</v>
+        <v>6.21913647344897</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2020780561684887</v>
+        <v>0.3805053764084505</v>
       </c>
       <c r="D4">
-        <v>0.07033197464809859</v>
+        <v>0.1135653001970809</v>
       </c>
       <c r="E4">
-        <v>0.05991762785031263</v>
+        <v>0.1545286047948196</v>
       </c>
       <c r="F4">
-        <v>0.9241965983827711</v>
+        <v>2.312444690789896</v>
       </c>
       <c r="G4">
-        <v>0.000835383895761052</v>
+        <v>0.002542930364474509</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07900314802660979</v>
+        <v>0.2302973117211433</v>
       </c>
       <c r="K4">
-        <v>2.815777556629342</v>
+        <v>1.497314805546239</v>
       </c>
       <c r="L4">
-        <v>0.04400587737979933</v>
+        <v>0.1337116035587869</v>
       </c>
       <c r="M4">
-        <v>0.6090795510998745</v>
+        <v>0.5157335853135692</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.432608283692304</v>
+        <v>6.260920216710957</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1981453575680092</v>
+        <v>0.380115090030344</v>
       </c>
       <c r="D5">
-        <v>0.06827181733353171</v>
+        <v>0.1130679333871782</v>
       </c>
       <c r="E5">
-        <v>0.05951737680039138</v>
+        <v>0.1546528119365824</v>
       </c>
       <c r="F5">
-        <v>0.923860946240012</v>
+        <v>2.317905275092322</v>
       </c>
       <c r="G5">
-        <v>0.0008367189989573753</v>
+        <v>0.002543833190901006</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07954884405759444</v>
+        <v>0.2308464803060737</v>
       </c>
       <c r="K5">
-        <v>2.699845563068379</v>
+        <v>1.462083964795482</v>
       </c>
       <c r="L5">
-        <v>0.04416807776977905</v>
+        <v>0.1338917552065144</v>
       </c>
       <c r="M5">
-        <v>0.5855194207632337</v>
+        <v>0.5090823984674842</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.440387196924121</v>
+        <v>6.278853745900051</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1974962698508023</v>
+        <v>0.3800528607501548</v>
       </c>
       <c r="D6">
-        <v>0.06793024953707061</v>
+        <v>0.1129857595392139</v>
       </c>
       <c r="E6">
-        <v>0.05945197583185013</v>
+        <v>0.1546742336100966</v>
       </c>
       <c r="F6">
-        <v>0.9238372918815969</v>
+        <v>2.318831199265063</v>
       </c>
       <c r="G6">
-        <v>0.0008369422339795651</v>
+        <v>0.002543984758374019</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07964134469450812</v>
+        <v>0.2309389924135186</v>
       </c>
       <c r="K6">
-        <v>2.680601590153628</v>
+        <v>1.456235297272372</v>
       </c>
       <c r="L6">
-        <v>0.04419551211812944</v>
+        <v>0.133922099687819</v>
       </c>
       <c r="M6">
-        <v>0.58161034776235</v>
+        <v>0.5079796934402978</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.441773159761482</v>
+        <v>6.281886316330286</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2020247521659542</v>
+        <v>0.3804999401258158</v>
       </c>
       <c r="D7">
-        <v>0.0703041552419279</v>
+        <v>0.1135585648467838</v>
       </c>
       <c r="E7">
-        <v>0.05991215841145703</v>
+        <v>0.1545302264704453</v>
       </c>
       <c r="F7">
-        <v>0.9241899053334492</v>
+        <v>2.31251704705663</v>
       </c>
       <c r="G7">
-        <v>0.0008354017984492647</v>
+        <v>0.002542942429490896</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07901038031400098</v>
+        <v>0.2303046293131636</v>
       </c>
       <c r="K7">
-        <v>2.814213596129179</v>
+        <v>1.496839578551914</v>
       </c>
       <c r="L7">
-        <v>0.04400803121602692</v>
+        <v>0.1337140043006411</v>
       </c>
       <c r="M7">
-        <v>0.6087615987064652</v>
+        <v>0.515643770103118</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.43270682629597</v>
+        <v>6.26115840574019</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2226079365208449</v>
+        <v>0.3828469465027098</v>
       </c>
       <c r="D8">
-        <v>0.08086150257442881</v>
+        <v>0.1161459601371817</v>
       </c>
       <c r="E8">
-        <v>0.0621017013823586</v>
+        <v>0.15401045628162</v>
       </c>
       <c r="F8">
-        <v>0.9305834252017888</v>
+        <v>2.287445361374559</v>
       </c>
       <c r="G8">
-        <v>0.0008288246162126423</v>
+        <v>0.002538582676093545</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07650693251762419</v>
+        <v>0.2276975406358765</v>
       </c>
       <c r="K8">
-        <v>3.405075662623858</v>
+        <v>1.676203880741411</v>
       </c>
       <c r="L8">
-        <v>0.04325424502297714</v>
+        <v>0.1328581882074964</v>
       </c>
       <c r="M8">
-        <v>0.7290931376531518</v>
+        <v>0.5497104672487225</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.406915799530282</v>
+        <v>6.177648989203192</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2654217373788299</v>
+        <v>0.388790032304243</v>
       </c>
       <c r="D9">
-        <v>0.1019253086696423</v>
+        <v>0.1214312862328697</v>
       </c>
       <c r="E9">
-        <v>0.06701547609991465</v>
+        <v>0.1534054988562232</v>
       </c>
       <c r="F9">
-        <v>0.9623126703774716</v>
+        <v>2.248319706786887</v>
       </c>
       <c r="G9">
-        <v>0.0008166803539702465</v>
+        <v>0.002530889558617799</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07267314191170726</v>
+        <v>0.2232749232833697</v>
       </c>
       <c r="K9">
-        <v>4.571759502613816</v>
+        <v>2.028484022625832</v>
       </c>
       <c r="L9">
-        <v>0.04204744415305939</v>
+        <v>0.1314034488902625</v>
       </c>
       <c r="M9">
-        <v>0.9677053600897949</v>
+        <v>0.6173765319759497</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.412738327416974</v>
+        <v>6.042532138290426</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2986748799971508</v>
+        <v>0.3939712749473472</v>
       </c>
       <c r="D10">
-        <v>0.117691931108709</v>
+        <v>0.1254410610454499</v>
       </c>
       <c r="E10">
-        <v>0.07105433250229254</v>
+        <v>0.1532123858528287</v>
       </c>
       <c r="F10">
-        <v>0.9991707633657256</v>
+        <v>2.225702992611275</v>
       </c>
       <c r="G10">
-        <v>0.0008081777288758906</v>
+        <v>0.002525754159455532</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07057937343731169</v>
+        <v>0.2204452521266624</v>
       </c>
       <c r="K10">
-        <v>5.437512325811895</v>
+        <v>2.287563225648512</v>
       </c>
       <c r="L10">
-        <v>0.04133348171751194</v>
+        <v>0.1304699988953679</v>
       </c>
       <c r="M10">
-        <v>1.145450936950553</v>
+        <v>0.6676000882677329</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.456820880200894</v>
+        <v>5.960764137482414</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.314266514739046</v>
+        <v>0.3965048554606483</v>
       </c>
       <c r="D11">
-        <v>0.1249451398590224</v>
+        <v>0.1272922697124415</v>
       </c>
       <c r="E11">
-        <v>0.07299704342025493</v>
+        <v>0.1531788629463833</v>
       </c>
       <c r="F11">
-        <v>1.019326668643998</v>
+        <v>2.216746811201432</v>
       </c>
       <c r="G11">
-        <v>0.0008043913323309745</v>
+        <v>0.002523529004944576</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0698001172192555</v>
+        <v>0.2192488826062906</v>
       </c>
       <c r="K11">
-        <v>5.834141971029794</v>
+        <v>2.405467550044193</v>
       </c>
       <c r="L11">
-        <v>0.04104792382954514</v>
+        <v>0.130074544809343</v>
       </c>
       <c r="M11">
-        <v>1.227043586517112</v>
+        <v>0.6905557374432476</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.486831347061241</v>
+        <v>5.927374971405129</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3202440941864495</v>
+        <v>0.3974895968494536</v>
       </c>
       <c r="D12">
-        <v>0.127704927371397</v>
+        <v>0.1279971309215</v>
       </c>
       <c r="E12">
-        <v>0.07374895996330011</v>
+        <v>0.1531739582996146</v>
       </c>
       <c r="F12">
-        <v>1.027487228339595</v>
+        <v>2.213547070970492</v>
       </c>
       <c r="G12">
-        <v>0.0008029683970770861</v>
+        <v>0.002522702267703664</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06953143140144746</v>
+        <v>0.2188089010795409</v>
       </c>
       <c r="K12">
-        <v>5.984818886886274</v>
+        <v>2.450120031846836</v>
       </c>
       <c r="L12">
-        <v>0.0409455911030161</v>
+        <v>0.1299289773561245</v>
       </c>
       <c r="M12">
-        <v>1.258064503832514</v>
+        <v>0.6992637180822641</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.49974731817062</v>
+        <v>5.915279626158764</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3189533423464184</v>
+        <v>0.3972763896909726</v>
       </c>
       <c r="D13">
-        <v>0.1271099470261987</v>
+        <v>0.1278451561380081</v>
       </c>
       <c r="E13">
-        <v>0.07358627997147593</v>
+        <v>0.1531746685028814</v>
       </c>
       <c r="F13">
-        <v>1.025705541174531</v>
+        <v>2.214227660140466</v>
       </c>
       <c r="G13">
-        <v>0.0008032743811089507</v>
+        <v>0.002522879615239004</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06958809833539803</v>
+        <v>0.2189030783602348</v>
       </c>
       <c r="K13">
-        <v>5.9523451335358</v>
+        <v>2.440503148088794</v>
       </c>
       <c r="L13">
-        <v>0.04096736954447167</v>
+        <v>0.1299601421064835</v>
       </c>
       <c r="M13">
-        <v>1.251377798575945</v>
+        <v>0.6973876309723437</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.496894604445117</v>
+        <v>5.917860170377651</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3147567839607177</v>
+        <v>0.3965853634661869</v>
       </c>
       <c r="D14">
-        <v>0.1251719164048524</v>
+        <v>0.1273501822443421</v>
       </c>
       <c r="E14">
-        <v>0.07305857169617269</v>
+        <v>0.1531783034461185</v>
       </c>
       <c r="F14">
-        <v>1.019987216872167</v>
+        <v>2.216479722164735</v>
       </c>
       <c r="G14">
-        <v>0.0008042740532973602</v>
+        <v>0.002523460670989199</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06977747413950297</v>
+        <v>0.2192124234128343</v>
       </c>
       <c r="K14">
-        <v>5.846528109845394</v>
+        <v>2.409141055528437</v>
       </c>
       <c r="L14">
-        <v>0.04103938760811587</v>
+        <v>0.1300624851405416</v>
       </c>
       <c r="M14">
-        <v>1.229593112199666</v>
+        <v>0.6912718467290802</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.487862131399254</v>
+        <v>5.926368884056558</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3121960289225569</v>
+        <v>0.3961653866252277</v>
       </c>
       <c r="D15">
-        <v>0.1239865772663364</v>
+        <v>0.1270474960488173</v>
       </c>
       <c r="E15">
-        <v>0.07273748594018414</v>
+        <v>0.1531815437547408</v>
       </c>
       <c r="F15">
-        <v>1.016554597538416</v>
+        <v>2.217884155163404</v>
       </c>
       <c r="G15">
-        <v>0.0008048877740240639</v>
+        <v>0.002523818650150737</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06989695704801591</v>
+        <v>0.2194036064400677</v>
       </c>
       <c r="K15">
-        <v>5.78177738040381</v>
+        <v>2.389931411585167</v>
       </c>
       <c r="L15">
-        <v>0.04108426132410514</v>
+        <v>0.1301257174896016</v>
       </c>
       <c r="M15">
-        <v>1.216266008554754</v>
+        <v>0.6875277149930383</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.482535283010975</v>
+        <v>5.931652162199299</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2976658274205306</v>
+        <v>0.3938092475993642</v>
       </c>
       <c r="D16">
-        <v>0.1172196718106449</v>
+        <v>0.125320621716682</v>
       </c>
       <c r="E16">
-        <v>0.07092958463876187</v>
+        <v>0.1532156679187686</v>
       </c>
       <c r="F16">
-        <v>0.9979251186768181</v>
+        <v>2.226315125292047</v>
       </c>
       <c r="G16">
-        <v>0.0008084267493131387</v>
+        <v>0.002525901805068639</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0706339100042932</v>
+        <v>0.2205252653604219</v>
       </c>
       <c r="K16">
-        <v>5.411654557106601</v>
+        <v>2.279858674634909</v>
       </c>
       <c r="L16">
-        <v>0.04135294642270892</v>
+        <v>0.1304964287360324</v>
       </c>
       <c r="M16">
-        <v>1.140134949077506</v>
+        <v>0.6661020308070391</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.455070004206505</v>
+        <v>5.963022891038321</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2888755160097674</v>
+        <v>0.3924090185319073</v>
       </c>
       <c r="D17">
-        <v>0.1130901557231994</v>
+        <v>0.1242681531479377</v>
       </c>
       <c r="E17">
-        <v>0.06984824708560922</v>
+        <v>0.1532505001653703</v>
       </c>
       <c r="F17">
-        <v>0.9873923935459459</v>
+        <v>2.231828616321721</v>
       </c>
       <c r="G17">
-        <v>0.0008106180988268208</v>
+        <v>0.002527208119521465</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07113139459651663</v>
+        <v>0.2212366328393074</v>
       </c>
       <c r="K17">
-        <v>5.185366641971029</v>
+        <v>2.212343298766882</v>
       </c>
       <c r="L17">
-        <v>0.04152793364440299</v>
+        <v>0.1307313115936317</v>
       </c>
       <c r="M17">
-        <v>1.093631528513967</v>
+        <v>0.6529855820577666</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.440853346205046</v>
+        <v>5.983243645558304</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2838628700583286</v>
+        <v>0.3916202708644505</v>
       </c>
       <c r="D18">
-        <v>0.1107224826654942</v>
+        <v>0.1236653590140691</v>
       </c>
       <c r="E18">
-        <v>0.06923614184219673</v>
+        <v>0.1532756494090464</v>
       </c>
       <c r="F18">
-        <v>0.9816506111777841</v>
+        <v>2.23512521908269</v>
       </c>
       <c r="G18">
-        <v>0.0008118862284601799</v>
+        <v>0.002527969925900488</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07143374137563896</v>
+        <v>0.2216543454464563</v>
       </c>
       <c r="K18">
-        <v>5.055469633851601</v>
+        <v>2.173514879058757</v>
       </c>
       <c r="L18">
-        <v>0.041632263545619</v>
+        <v>0.130869157061035</v>
       </c>
       <c r="M18">
-        <v>1.066952044093362</v>
+        <v>0.6454516061258389</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.433605764093102</v>
+        <v>5.995232415869651</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2821729214560094</v>
+        <v>0.3913560722026403</v>
       </c>
       <c r="D19">
-        <v>0.1099220757436399</v>
+        <v>0.1234617042710084</v>
       </c>
       <c r="E19">
-        <v>0.06903055357358667</v>
+        <v>0.1532850436351119</v>
       </c>
       <c r="F19">
-        <v>0.9797596943353568</v>
+        <v>2.236262921912569</v>
       </c>
       <c r="G19">
-        <v>0.0008123169460556972</v>
+        <v>0.002528229657450146</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07153885080016664</v>
+        <v>0.2217972449714587</v>
       </c>
       <c r="K19">
-        <v>5.011530694244357</v>
+        <v>2.160369107941676</v>
       </c>
       <c r="L19">
-        <v>0.04166821552385613</v>
+        <v>0.1309163013818466</v>
       </c>
       <c r="M19">
-        <v>1.057929999556393</v>
+        <v>0.6429025072276104</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.43130800381843</v>
+        <v>5.999353123395451</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2898067315954336</v>
+        <v>0.3925563549514948</v>
       </c>
       <c r="D20">
-        <v>0.1135289613344241</v>
+        <v>0.1243799258816267</v>
       </c>
       <c r="E20">
-        <v>0.06996233006400132</v>
+        <v>0.1532462630263858</v>
       </c>
       <c r="F20">
-        <v>0.988480594215801</v>
+        <v>2.231228717152149</v>
       </c>
       <c r="G20">
-        <v>0.0008103840323525881</v>
+        <v>0.002527067979079857</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07107674873986269</v>
+        <v>0.2211600214288332</v>
       </c>
       <c r="K20">
-        <v>5.209428136543579</v>
+        <v>2.219529961818125</v>
       </c>
       <c r="L20">
-        <v>0.04150892376977033</v>
+        <v>0.1307060236981101</v>
       </c>
       <c r="M20">
-        <v>1.098574729668471</v>
+        <v>0.6543807920299116</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.442269701566033</v>
+        <v>5.981054019728589</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3159873688252048</v>
+        <v>0.3967876477136372</v>
       </c>
       <c r="D21">
-        <v>0.125740793168589</v>
+        <v>0.1274954640543342</v>
       </c>
       <c r="E21">
-        <v>0.0732131221009098</v>
+        <v>0.1531770245394135</v>
       </c>
       <c r="F21">
-        <v>1.021652157973534</v>
+        <v>2.215813030808761</v>
       </c>
       <c r="G21">
-        <v>0.0008039801366493906</v>
+        <v>0.002523289570303806</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06972112080848447</v>
+        <v>0.2191212069561743</v>
       </c>
       <c r="K21">
-        <v>5.877595382961204</v>
+        <v>2.418352753029183</v>
       </c>
       <c r="L21">
-        <v>0.04101807534873991</v>
+        <v>0.1300323111050954</v>
       </c>
       <c r="M21">
-        <v>1.235988299639772</v>
+        <v>0.6930677925924869</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.490472070293379</v>
+        <v>5.923854777856889</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3335290019954016</v>
+        <v>0.3997006509377741</v>
       </c>
       <c r="D22">
-        <v>0.1337994112053451</v>
+        <v>0.1295540564549498</v>
       </c>
       <c r="E22">
-        <v>0.07543301830632032</v>
+        <v>0.1531771676411573</v>
       </c>
       <c r="F22">
-        <v>1.04643040698943</v>
+        <v>2.206855867874211</v>
       </c>
       <c r="G22">
-        <v>0.0007998578694554459</v>
+        <v>0.00252091269072167</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06898981489617739</v>
+        <v>0.217864830107537</v>
       </c>
       <c r="K22">
-        <v>6.317132497674663</v>
+        <v>2.548321170182817</v>
       </c>
       <c r="L22">
-        <v>0.04073117945916138</v>
+        <v>0.1296163733083251</v>
       </c>
       <c r="M22">
-        <v>1.326525597691642</v>
+        <v>0.7184402241813643</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.531082519586676</v>
+        <v>5.889668719607982</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3241249491693736</v>
+        <v>0.3981324419226553</v>
       </c>
       <c r="D23">
-        <v>0.1294907475044056</v>
+        <v>0.1284533144210229</v>
       </c>
       <c r="E23">
-        <v>0.07423911074166156</v>
+        <v>0.1531729449470518</v>
       </c>
       <c r="F23">
-        <v>1.032907922061796</v>
+        <v>2.21153412479795</v>
       </c>
       <c r="G23">
-        <v>0.00080205252262324</v>
+        <v>0.00252217283472429</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0693654465625464</v>
+        <v>0.2185284210157867</v>
       </c>
       <c r="K23">
-        <v>6.082254022618315</v>
+        <v>2.478952904519304</v>
       </c>
       <c r="L23">
-        <v>0.04088114250531305</v>
+        <v>0.1298361414032154</v>
       </c>
       <c r="M23">
-        <v>1.278131073756626</v>
+        <v>0.7048905554931792</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.508532315585512</v>
+        <v>5.907621645599193</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2893856017462468</v>
+        <v>0.3924896934957616</v>
       </c>
       <c r="D24">
-        <v>0.1133305573696646</v>
+        <v>0.1243293863110466</v>
       </c>
       <c r="E24">
-        <v>0.06991072342242788</v>
+        <v>0.1532481626755633</v>
       </c>
       <c r="F24">
-        <v>0.987987644862045</v>
+        <v>2.231499536526044</v>
       </c>
       <c r="G24">
-        <v>0.0008104898278865633</v>
+        <v>0.002527131302887176</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07110140335935</v>
+        <v>0.2211946302282115</v>
       </c>
       <c r="K24">
-        <v>5.198549321193127</v>
+        <v>2.216280911567026</v>
       </c>
       <c r="L24">
-        <v>0.04151750653602804</v>
+        <v>0.1307174476074895</v>
       </c>
       <c r="M24">
-        <v>1.096339735477684</v>
+        <v>0.6537499962456508</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.44162649269748</v>
+        <v>5.982042817046363</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2535471034552756</v>
+        <v>0.3870389998504322</v>
       </c>
       <c r="D25">
-        <v>0.09618136307291536</v>
+        <v>0.1199790638178229</v>
       </c>
       <c r="E25">
-        <v>0.06561477497090706</v>
+        <v>0.1535249283378128</v>
       </c>
       <c r="F25">
-        <v>0.9514920829666806</v>
+        <v>2.25782853809541</v>
       </c>
       <c r="G25">
-        <v>0.0008198889573300672</v>
+        <v>0.00253287962484069</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07358850565146469</v>
+        <v>0.2243976004365891</v>
       </c>
       <c r="K25">
-        <v>4.25491905874577</v>
+        <v>1.933132143756154</v>
       </c>
       <c r="L25">
-        <v>0.04234414834283307</v>
+        <v>0.1317731604657357</v>
       </c>
       <c r="M25">
-        <v>0.9027902712662481</v>
+        <v>0.5989805078044341</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.404590079314005</v>
+        <v>6.07601410301973</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_194/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3835736843423803</v>
+        <v>0.2283402458369466</v>
       </c>
       <c r="D2">
-        <v>0.1168614100633079</v>
+        <v>0.08374399602810456</v>
       </c>
       <c r="E2">
-        <v>0.1538977088172029</v>
+        <v>0.06273516739477358</v>
       </c>
       <c r="F2">
-        <v>2.281331322514944</v>
+        <v>0.9335506751164715</v>
       </c>
       <c r="G2">
-        <v>0.002537459553084928</v>
+        <v>0.0008270949080039528</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.227037872542077</v>
+        <v>0.07589907995875222</v>
       </c>
       <c r="K2">
-        <v>1.724842512487612</v>
+        <v>3.565584319896402</v>
       </c>
       <c r="L2">
-        <v>0.1326414652375352</v>
+        <v>0.04306812120903558</v>
       </c>
       <c r="M2">
-        <v>0.5589997316786253</v>
+        <v>0.761847426233615</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.156959173689216</v>
+        <v>2.403557152212386</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.381567749823148</v>
+        <v>0.2118932584856879</v>
       </c>
       <c r="D3">
-        <v>0.11480254448864</v>
+        <v>0.07540965106098696</v>
       </c>
       <c r="E3">
-        <v>0.1542561673580938</v>
+        <v>0.06094370284477435</v>
       </c>
       <c r="F3">
-        <v>2.29982489110462</v>
+        <v>0.926353223749345</v>
       </c>
       <c r="G3">
-        <v>0.002540781978211733</v>
+        <v>0.0008321696575624425</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2290034245979946</v>
+        <v>0.07774184430832776</v>
       </c>
       <c r="K3">
-        <v>1.583822882290406</v>
+        <v>3.100584242489617</v>
       </c>
       <c r="L3">
-        <v>0.1332869932048872</v>
+        <v>0.04362832354771307</v>
       </c>
       <c r="M3">
-        <v>0.5321245139767399</v>
+        <v>0.6670316667241565</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6.21913647344897</v>
+        <v>2.417436664201688</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3805053764084505</v>
+        <v>0.2020780561684035</v>
       </c>
       <c r="D4">
-        <v>0.1135653001970809</v>
+        <v>0.07033197464785701</v>
       </c>
       <c r="E4">
-        <v>0.1545286047948196</v>
+        <v>0.05991762785029842</v>
       </c>
       <c r="F4">
-        <v>2.312444690789896</v>
+        <v>0.9241965983827924</v>
       </c>
       <c r="G4">
-        <v>0.002542930364474509</v>
+        <v>0.0008353838958796429</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2302973117211433</v>
+        <v>0.07900314802656538</v>
       </c>
       <c r="K4">
-        <v>1.497314805546239</v>
+        <v>2.815777556629314</v>
       </c>
       <c r="L4">
-        <v>0.1337116035587869</v>
+        <v>0.04400587737982598</v>
       </c>
       <c r="M4">
-        <v>0.5157335853135692</v>
+        <v>0.6090795510998817</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.260920216710957</v>
+        <v>2.432608283692304</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.380115090030344</v>
+        <v>0.1981453575682792</v>
       </c>
       <c r="D5">
-        <v>0.1130679333871782</v>
+        <v>0.0682718173335175</v>
       </c>
       <c r="E5">
-        <v>0.1546528119365824</v>
+        <v>0.05951737680038782</v>
       </c>
       <c r="F5">
-        <v>2.317905275092322</v>
+        <v>0.9238609462399978</v>
       </c>
       <c r="G5">
-        <v>0.002543833190901006</v>
+        <v>0.0008367189990007182</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2308464803060737</v>
+        <v>0.07954884405761575</v>
       </c>
       <c r="K5">
-        <v>1.462083964795482</v>
+        <v>2.699845563068322</v>
       </c>
       <c r="L5">
-        <v>0.1338917552065144</v>
+        <v>0.04416807776985543</v>
       </c>
       <c r="M5">
-        <v>0.5090823984674842</v>
+        <v>0.5855194207632408</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.278853745900051</v>
+        <v>2.440387196924121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3800528607501548</v>
+        <v>0.1974962698512002</v>
       </c>
       <c r="D6">
-        <v>0.1129857595392139</v>
+        <v>0.0679302495370635</v>
       </c>
       <c r="E6">
-        <v>0.1546742336100966</v>
+        <v>0.05945197583182527</v>
       </c>
       <c r="F6">
-        <v>2.318831199265063</v>
+        <v>0.923837291881604</v>
       </c>
       <c r="G6">
-        <v>0.002543984758374019</v>
+        <v>0.000836942234023981</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2309389924135186</v>
+        <v>0.07964134469451345</v>
       </c>
       <c r="K6">
-        <v>1.456235297272372</v>
+        <v>2.680601590153572</v>
       </c>
       <c r="L6">
-        <v>0.133922099687819</v>
+        <v>0.04419551211813655</v>
       </c>
       <c r="M6">
-        <v>0.5079796934402978</v>
+        <v>0.5816103477623358</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.281886316330286</v>
+        <v>2.441773159761482</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3804999401258158</v>
+        <v>0.2020247521660394</v>
       </c>
       <c r="D7">
-        <v>0.1135585648467838</v>
+        <v>0.07030415524221212</v>
       </c>
       <c r="E7">
-        <v>0.1545302264704453</v>
+        <v>0.05991215841145703</v>
       </c>
       <c r="F7">
-        <v>2.31251704705663</v>
+        <v>0.924189905333435</v>
       </c>
       <c r="G7">
-        <v>0.002542942429490896</v>
+        <v>0.000835401798448876</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2303046293131636</v>
+        <v>0.07901038031393703</v>
       </c>
       <c r="K7">
-        <v>1.496839578551914</v>
+        <v>2.814213596129292</v>
       </c>
       <c r="L7">
-        <v>0.1337140043006411</v>
+        <v>0.04400803121599672</v>
       </c>
       <c r="M7">
-        <v>0.515643770103118</v>
+        <v>0.6087615987064581</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.26115840574019</v>
+        <v>2.432706826295998</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3828469465027098</v>
+        <v>0.2226079365211007</v>
       </c>
       <c r="D8">
-        <v>0.1161459601371817</v>
+        <v>0.08086150257447144</v>
       </c>
       <c r="E8">
-        <v>0.15401045628162</v>
+        <v>0.06210170138235505</v>
       </c>
       <c r="F8">
-        <v>2.287445361374559</v>
+        <v>0.9305834252017817</v>
       </c>
       <c r="G8">
-        <v>0.002538582676093545</v>
+        <v>0.0008288246162121255</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2276975406358765</v>
+        <v>0.07650693251769525</v>
       </c>
       <c r="K8">
-        <v>1.676203880741411</v>
+        <v>3.405075662623972</v>
       </c>
       <c r="L8">
-        <v>0.1328581882074964</v>
+        <v>0.04325424502296116</v>
       </c>
       <c r="M8">
-        <v>0.5497104672487225</v>
+        <v>0.7290931376531375</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.177648989203192</v>
+        <v>2.406915799530253</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.388790032304243</v>
+        <v>0.2654217373791994</v>
       </c>
       <c r="D9">
-        <v>0.1214312862328697</v>
+        <v>0.1019253086695784</v>
       </c>
       <c r="E9">
-        <v>0.1534054988562232</v>
+        <v>0.06701547609993597</v>
       </c>
       <c r="F9">
-        <v>2.248319706786887</v>
+        <v>0.9623126703774574</v>
       </c>
       <c r="G9">
-        <v>0.002530889558617799</v>
+        <v>0.0008166803540023775</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2232749232833697</v>
+        <v>0.07267314191164331</v>
       </c>
       <c r="K9">
-        <v>2.028484022625832</v>
+        <v>4.571759502613929</v>
       </c>
       <c r="L9">
-        <v>0.1314034488902625</v>
+        <v>0.04204744415305228</v>
       </c>
       <c r="M9">
-        <v>0.6173765319759497</v>
+        <v>0.9677053600897807</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.042532138290426</v>
+        <v>2.412738327417088</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3939712749473472</v>
+        <v>0.298674879997094</v>
       </c>
       <c r="D10">
-        <v>0.1254410610454499</v>
+        <v>0.1176919311086095</v>
       </c>
       <c r="E10">
-        <v>0.1532123858528287</v>
+        <v>0.07105433250228188</v>
       </c>
       <c r="F10">
-        <v>2.225702992611275</v>
+        <v>0.9991707633657256</v>
       </c>
       <c r="G10">
-        <v>0.002525754159455532</v>
+        <v>0.0008081777288468657</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2204452521266624</v>
+        <v>0.07057937343744669</v>
       </c>
       <c r="K10">
-        <v>2.287563225648512</v>
+        <v>5.437512325812008</v>
       </c>
       <c r="L10">
-        <v>0.1304699988953679</v>
+        <v>0.04133348171752793</v>
       </c>
       <c r="M10">
-        <v>0.6676000882677329</v>
+        <v>1.145450936950567</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.960764137482414</v>
+        <v>2.456820880200922</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3965048554606483</v>
+        <v>0.3142665147391881</v>
       </c>
       <c r="D11">
-        <v>0.1272922697124415</v>
+        <v>0.1249451398589656</v>
       </c>
       <c r="E11">
-        <v>0.1531788629463833</v>
+        <v>0.07299704342025848</v>
       </c>
       <c r="F11">
-        <v>2.216746811201432</v>
+        <v>1.019326668644013</v>
       </c>
       <c r="G11">
-        <v>0.002523529004944576</v>
+        <v>0.0008043913323310353</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2192488826062906</v>
+        <v>0.06980011721922352</v>
       </c>
       <c r="K11">
-        <v>2.405467550044193</v>
+        <v>5.834141971029908</v>
       </c>
       <c r="L11">
-        <v>0.130074544809343</v>
+        <v>0.04104792382958955</v>
       </c>
       <c r="M11">
-        <v>0.6905557374432476</v>
+        <v>1.227043586517098</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.927374971405129</v>
+        <v>2.486831347061297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3974895968494536</v>
+        <v>0.3202440941865632</v>
       </c>
       <c r="D12">
-        <v>0.1279971309215</v>
+        <v>0.1277049273713402</v>
       </c>
       <c r="E12">
-        <v>0.1531739582996146</v>
+        <v>0.07374895996330011</v>
       </c>
       <c r="F12">
-        <v>2.213547070970492</v>
+        <v>1.027487228339595</v>
       </c>
       <c r="G12">
-        <v>0.002522702267703664</v>
+        <v>0.0008029683970469341</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2188089010795409</v>
+        <v>0.06953143140143681</v>
       </c>
       <c r="K12">
-        <v>2.450120031846836</v>
+        <v>5.984818886886217</v>
       </c>
       <c r="L12">
-        <v>0.1299289773561245</v>
+        <v>0.04094559110306051</v>
       </c>
       <c r="M12">
-        <v>0.6992637180822641</v>
+        <v>1.258064503832514</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.915279626158764</v>
+        <v>2.499747318170591</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3972763896909726</v>
+        <v>0.3189533423465321</v>
       </c>
       <c r="D13">
-        <v>0.1278451561380081</v>
+        <v>0.1271099470261845</v>
       </c>
       <c r="E13">
-        <v>0.1531746685028814</v>
+        <v>0.07358627997150435</v>
       </c>
       <c r="F13">
-        <v>2.214227660140466</v>
+        <v>1.025705541174517</v>
       </c>
       <c r="G13">
-        <v>0.002522879615239004</v>
+        <v>0.0008032743810499883</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2189030783602348</v>
+        <v>0.06958809833548329</v>
       </c>
       <c r="K13">
-        <v>2.440503148088794</v>
+        <v>5.9523451335358</v>
       </c>
       <c r="L13">
-        <v>0.1299601421064835</v>
+        <v>0.04096736954442548</v>
       </c>
       <c r="M13">
-        <v>0.6973876309723437</v>
+        <v>1.251377798575945</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.917860170377651</v>
+        <v>2.49689460444506</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3965853634661869</v>
+        <v>0.3147567839608598</v>
       </c>
       <c r="D14">
-        <v>0.1273501822443421</v>
+        <v>0.1251719164047955</v>
       </c>
       <c r="E14">
-        <v>0.1531783034461185</v>
+        <v>0.07305857169617269</v>
       </c>
       <c r="F14">
-        <v>2.216479722164735</v>
+        <v>1.019987216872167</v>
       </c>
       <c r="G14">
-        <v>0.002523460670989199</v>
+        <v>0.00080427405329774</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2192124234128343</v>
+        <v>0.06977747413956692</v>
       </c>
       <c r="K14">
-        <v>2.409141055528437</v>
+        <v>5.846528109845337</v>
       </c>
       <c r="L14">
-        <v>0.1300624851405416</v>
+        <v>0.04103938760811232</v>
       </c>
       <c r="M14">
-        <v>0.6912718467290802</v>
+        <v>1.229593112199638</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.926368884056558</v>
+        <v>2.487862131399226</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3961653866252277</v>
+        <v>0.3121960289228127</v>
       </c>
       <c r="D15">
-        <v>0.1270474960488173</v>
+        <v>0.1239865772663933</v>
       </c>
       <c r="E15">
-        <v>0.1531815437547408</v>
+        <v>0.07273748594016993</v>
       </c>
       <c r="F15">
-        <v>2.217884155163404</v>
+        <v>1.016554597538416</v>
       </c>
       <c r="G15">
-        <v>0.002523818650150737</v>
+        <v>0.0008048877739947974</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2194036064400677</v>
+        <v>0.06989695704816512</v>
       </c>
       <c r="K15">
-        <v>2.389931411585167</v>
+        <v>5.781777380403867</v>
       </c>
       <c r="L15">
-        <v>0.1301257174896016</v>
+        <v>0.04108426132410514</v>
       </c>
       <c r="M15">
-        <v>0.6875277149930383</v>
+        <v>1.216266008554769</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.931652162199299</v>
+        <v>2.482535283010975</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3938092475993642</v>
+        <v>0.2976658274206443</v>
       </c>
       <c r="D16">
-        <v>0.125320621716682</v>
+        <v>0.1172196718107443</v>
       </c>
       <c r="E16">
-        <v>0.1532156679187686</v>
+        <v>0.07092958463876542</v>
       </c>
       <c r="F16">
-        <v>2.226315125292047</v>
+        <v>0.9979251186768181</v>
       </c>
       <c r="G16">
-        <v>0.002525901805068639</v>
+        <v>0.0008084267492849515</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2205252653604219</v>
+        <v>0.07063391000428254</v>
       </c>
       <c r="K16">
-        <v>2.279858674634909</v>
+        <v>5.411654557106658</v>
       </c>
       <c r="L16">
-        <v>0.1304964287360324</v>
+        <v>0.04135294642266985</v>
       </c>
       <c r="M16">
-        <v>0.6661020308070391</v>
+        <v>1.14013494907752</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.963022891038321</v>
+        <v>2.455070004206533</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3924090185319073</v>
+        <v>0.2888755160097674</v>
       </c>
       <c r="D17">
-        <v>0.1242681531479377</v>
+        <v>0.1130901557231994</v>
       </c>
       <c r="E17">
-        <v>0.1532505001653703</v>
+        <v>0.06984824708559501</v>
       </c>
       <c r="F17">
-        <v>2.231828616321721</v>
+        <v>0.9873923935459459</v>
       </c>
       <c r="G17">
-        <v>0.002527208119521465</v>
+        <v>0.0008106180988265631</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2212366328393074</v>
+        <v>0.07113139459650952</v>
       </c>
       <c r="K17">
-        <v>2.212343298766882</v>
+        <v>5.185366641971086</v>
       </c>
       <c r="L17">
-        <v>0.1307313115936317</v>
+        <v>0.04152793364445984</v>
       </c>
       <c r="M17">
-        <v>0.6529855820577666</v>
+        <v>1.093631528513967</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.983243645558304</v>
+        <v>2.440853346205103</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3916202708644505</v>
+        <v>0.2838628700582149</v>
       </c>
       <c r="D18">
-        <v>0.1236653590140691</v>
+        <v>0.1107224826656648</v>
       </c>
       <c r="E18">
-        <v>0.1532756494090464</v>
+        <v>0.06923614184223226</v>
       </c>
       <c r="F18">
-        <v>2.23512521908269</v>
+        <v>0.9816506111778125</v>
       </c>
       <c r="G18">
-        <v>0.002527969925900488</v>
+        <v>0.0008118862284605005</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2216543454464563</v>
+        <v>0.07143374137545067</v>
       </c>
       <c r="K18">
-        <v>2.173514879058757</v>
+        <v>5.055469633851544</v>
       </c>
       <c r="L18">
-        <v>0.130869157061035</v>
+        <v>0.04163226354549998</v>
       </c>
       <c r="M18">
-        <v>0.6454516061258389</v>
+        <v>1.066952044093355</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.995232415869651</v>
+        <v>2.433605764093073</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3913560722026403</v>
+        <v>0.2821729214557394</v>
       </c>
       <c r="D19">
-        <v>0.1234617042710084</v>
+        <v>0.1099220757436967</v>
       </c>
       <c r="E19">
-        <v>0.1532850436351119</v>
+        <v>0.06903055357360088</v>
       </c>
       <c r="F19">
-        <v>2.236262921912569</v>
+        <v>0.9797596943353426</v>
       </c>
       <c r="G19">
-        <v>0.002528229657450146</v>
+        <v>0.0008123169460824231</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2217972449714587</v>
+        <v>0.07153885080013112</v>
       </c>
       <c r="K19">
-        <v>2.160369107941676</v>
+        <v>5.011530694244357</v>
       </c>
       <c r="L19">
-        <v>0.1309163013818466</v>
+        <v>0.0416682155238437</v>
       </c>
       <c r="M19">
-        <v>0.6429025072276104</v>
+        <v>1.057929999556414</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.999353123395451</v>
+        <v>2.43130800381843</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3925563549514948</v>
+        <v>0.2898067315950215</v>
       </c>
       <c r="D20">
-        <v>0.1243799258816267</v>
+        <v>0.1135289613343815</v>
       </c>
       <c r="E20">
-        <v>0.1532462630263858</v>
+        <v>0.06996233006400843</v>
       </c>
       <c r="F20">
-        <v>2.231228717152149</v>
+        <v>0.9884805942158152</v>
       </c>
       <c r="G20">
-        <v>0.002527067979079857</v>
+        <v>0.000810384032380212</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2211600214288332</v>
+        <v>0.07107674873996928</v>
       </c>
       <c r="K20">
-        <v>2.219529961818125</v>
+        <v>5.209428136543579</v>
       </c>
       <c r="L20">
-        <v>0.1307060236981101</v>
+        <v>0.04150892376974902</v>
       </c>
       <c r="M20">
-        <v>0.6543807920299116</v>
+        <v>1.098574729668456</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.981054019728589</v>
+        <v>2.442269701566119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3967876477136372</v>
+        <v>0.3159873688252048</v>
       </c>
       <c r="D21">
-        <v>0.1274954640543342</v>
+        <v>0.1257407931682337</v>
       </c>
       <c r="E21">
-        <v>0.1531770245394135</v>
+        <v>0.07321312210091335</v>
       </c>
       <c r="F21">
-        <v>2.215813030808761</v>
+        <v>1.02165215797352</v>
       </c>
       <c r="G21">
-        <v>0.002523289570303806</v>
+        <v>0.0008039801366786002</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2191212069561743</v>
+        <v>0.06972112080837434</v>
       </c>
       <c r="K21">
-        <v>2.418352753029183</v>
+        <v>5.877595382961147</v>
       </c>
       <c r="L21">
-        <v>0.1300323111050954</v>
+        <v>0.04101807534868129</v>
       </c>
       <c r="M21">
-        <v>0.6930677925924869</v>
+        <v>1.235988299639772</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.923854777856889</v>
+        <v>2.490472070293293</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3997006509377741</v>
+        <v>0.3335290019955153</v>
       </c>
       <c r="D22">
-        <v>0.1295540564549498</v>
+        <v>0.1337994112053451</v>
       </c>
       <c r="E22">
-        <v>0.1531771676411573</v>
+        <v>0.07543301830633098</v>
       </c>
       <c r="F22">
-        <v>2.206855867874211</v>
+        <v>1.04643040698943</v>
       </c>
       <c r="G22">
-        <v>0.00252091269072167</v>
+        <v>0.0007998578694548104</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.217864830107537</v>
+        <v>0.06898981489610279</v>
       </c>
       <c r="K22">
-        <v>2.548321170182817</v>
+        <v>6.317132497674606</v>
       </c>
       <c r="L22">
-        <v>0.1296163733083251</v>
+        <v>0.04073117945916138</v>
       </c>
       <c r="M22">
-        <v>0.7184402241813643</v>
+        <v>1.326525597691656</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.889668719607982</v>
+        <v>2.531082519586676</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3981324419226553</v>
+        <v>0.3241249491693736</v>
       </c>
       <c r="D23">
-        <v>0.1284533144210229</v>
+        <v>0.1294907475042919</v>
       </c>
       <c r="E23">
-        <v>0.1531729449470518</v>
+        <v>0.07423911074167933</v>
       </c>
       <c r="F23">
-        <v>2.21153412479795</v>
+        <v>1.032907922061767</v>
       </c>
       <c r="G23">
-        <v>0.00252217283472429</v>
+        <v>0.0008020525226534424</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2185284210157867</v>
+        <v>0.06936544656255705</v>
       </c>
       <c r="K23">
-        <v>2.478952904519304</v>
+        <v>6.082254022618372</v>
       </c>
       <c r="L23">
-        <v>0.1298361414032154</v>
+        <v>0.04088114250533081</v>
       </c>
       <c r="M23">
-        <v>0.7048905554931792</v>
+        <v>1.27813107375664</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.907621645599193</v>
+        <v>2.508532315585512</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3924896934957616</v>
+        <v>0.2893856017461616</v>
       </c>
       <c r="D24">
-        <v>0.1243293863110466</v>
+        <v>0.1133305573693804</v>
       </c>
       <c r="E24">
-        <v>0.1532481626755633</v>
+        <v>0.06991072342241367</v>
       </c>
       <c r="F24">
-        <v>2.231499536526044</v>
+        <v>0.9879876448620308</v>
       </c>
       <c r="G24">
-        <v>0.002527131302887176</v>
+        <v>0.0008104898278851829</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2211946302282115</v>
+        <v>0.07110140335943527</v>
       </c>
       <c r="K24">
-        <v>2.216280911567026</v>
+        <v>5.198549321193184</v>
       </c>
       <c r="L24">
-        <v>0.1307174476074895</v>
+        <v>0.04151750653601205</v>
       </c>
       <c r="M24">
-        <v>0.6537499962456508</v>
+        <v>1.096339735477699</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.982042817046363</v>
+        <v>2.441626492697395</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3870389998504322</v>
+        <v>0.2535471034553751</v>
       </c>
       <c r="D25">
-        <v>0.1199790638178229</v>
+        <v>0.09618136307312142</v>
       </c>
       <c r="E25">
-        <v>0.1535249283378128</v>
+        <v>0.06561477497090706</v>
       </c>
       <c r="F25">
-        <v>2.25782853809541</v>
+        <v>0.9514920829666806</v>
       </c>
       <c r="G25">
-        <v>0.00253287962484069</v>
+        <v>0.0008198889573301536</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2243976004365891</v>
+        <v>0.07358850565152153</v>
       </c>
       <c r="K25">
-        <v>1.933132143756154</v>
+        <v>4.254919058745656</v>
       </c>
       <c r="L25">
-        <v>0.1317731604657357</v>
+        <v>0.04234414834280642</v>
       </c>
       <c r="M25">
-        <v>0.5989805078044341</v>
+        <v>0.902790271266241</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.07601410301973</v>
+        <v>2.404590079314005</v>
       </c>
     </row>
   </sheetData>
